--- a/data/trans_dic/P7_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con más de 1 persona</t>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>93,73%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>92,96%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>92,43%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>91,33%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>90,66%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,33; 96,09</t>
+          <t>90,0; 97,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,51; 96,25</t>
+          <t>88,34; 96,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,86; 96,42</t>
+          <t>89,71; 97,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,42; 96,17</t>
+          <t>88,18; 96,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,0; 94,05</t>
+          <t>86,13; 95,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,84; 94,71</t>
+          <t>88,44; 96,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,83; 93,83</t>
+          <t>87,69; 95,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,26; 93,59</t>
+          <t>85,72; 94,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>90,2; 94,27</t>
+          <t>84,26; 93,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>90,69; 94,73</t>
+          <t>84,15; 93,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>90,51; 94,54</t>
+          <t>90,76; 95,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,12; 94,26</t>
+          <t>89,46; 95,11</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>89,07; 94,78</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>87,69; 94,06</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>86,76; 93,4</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>91,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>90,5%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>93,5%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>92,57%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>92,22%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>90,78%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,23; 96,17</t>
+          <t>83,76; 97,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,06; 96,14</t>
+          <t>81,43; 97,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,13; 94,99</t>
+          <t>79,7; 96,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86,3; 94,94</t>
+          <t>82,72; 95,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,6; 96,34</t>
+          <t>83,31; 95,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,94; 97,47</t>
+          <t>88,69; 96,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,52; 97,15</t>
+          <t>88,77; 96,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,19; 97,43</t>
+          <t>88,8; 96,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,46; 95,54</t>
+          <t>87,65; 96,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>90,92; 96,27</t>
+          <t>84,65; 94,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>90,15; 95,5</t>
+          <t>89,03; 96,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>90,52; 95,6</t>
+          <t>88,31; 96,19</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>86,8; 95,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>87,25; 95,01</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>86,26; 93,97</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,72%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>98,83%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>98,33%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>98,44%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>98,42%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>95,33%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>81,33; 97,26</t>
+          <t>82,69; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81,42; 97,43</t>
+          <t>82,94; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,05; 97,3</t>
+          <t>83,54; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81,48; 97,5</t>
+          <t>83,63; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,99; 100,0</t>
+          <t>80,79; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,57; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>93,24; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>93,89; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,8; 97,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>90,04; 98,2</t>
+          <t>84,81; 100,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>90,32; 98,19</t>
+          <t>92,02; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>89,85; 98,15</t>
+          <t>92,36; 100,0</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>93,07; 100,0</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>92,9; 100,0</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>87,77; 98,66</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>93,75%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>93,09%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>92,43%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>91,21%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,78; 95,32</t>
+          <t>90,34; 96,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>90,32; 95,17</t>
+          <t>89,39; 96,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,11; 94,94</t>
+          <t>88,6; 96,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,43; 94,55</t>
+          <t>89,01; 95,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,97; 94,75</t>
+          <t>87,91; 94,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,18; 95,64</t>
+          <t>91,22; 95,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,64; 95,14</t>
+          <t>91,09; 95,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,44; 95,05</t>
+          <t>89,85; 94,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,27; 94,59</t>
+          <t>88,72; 94,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,04; 95,0</t>
+          <t>87,02; 93,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,63; 94,59</t>
+          <t>92,02; 95,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,41; 94,32</t>
+          <t>91,5; 95,5</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>90,56; 95,07</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>90,09; 94,27</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>88,83; 93,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con más de 1 persona (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>346742</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>400503</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>341987</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>352924</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>473005</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>404089</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>470154</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>382058</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>365307</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>505700</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>750831</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>870658</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>724044</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>718230</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>978706</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>329169; 358169</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>377894; 414451</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>324953; 353383</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>334180; 366765</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>444355; 493769</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>385031; 418078</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>446200; 487642</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>360942; 396304</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>343366; 381391</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>474295; 527991</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>727068; 768276</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>837909; 890823</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>697718; 742435</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>689603; 739750</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>936628; 1008255</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>271.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>285155</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>334747</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>291177</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>295310</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>373351</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>328073</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>316763</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>311139</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>392035</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>613228</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>733758</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>607940</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>606449</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>765386</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>255219; 296525</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>292669; 349918</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>253716; 306304</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>266868; 309123</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>341491; 391996</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>310511; 338327</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>377589; 411227</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>300516; 326649</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>293624; 322359</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>366700; 411179</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>582942; 629968</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>692987; 754848</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>570041; 626643</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>573761; 624784</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>727224; 792247</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>81936</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>98386</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>77086</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>82936</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>112741</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>82611</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>101166</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>81552</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>82553</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>107242</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>164547</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>199552</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>158638</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>165489</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>219983</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>70139; 84826</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>84402; 101768</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>66497; 79603</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>71580; 85591</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>96456; 119398</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>94433; 111352</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>154083; 167437</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>187437; 202934</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>149990; 161155</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>156214; 168144</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>202522; 227646</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>370.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>365.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>670.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>667.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>661.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>649.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>713833</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>833637</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>710249</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>731170</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>959097</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>814773</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>970331</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>780373</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>758999</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1004976</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1528606</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1803968</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1490622</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1490170</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1964074</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>682331; 731276</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>794602; 856491</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>673502; 730817</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>700624; 752615</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>918808; 989624</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>791850; 831142</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>943128; 991182</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>755649; 798470</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>731980; 778136</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>964320; 1035028</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1493870; 1555079</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1760692; 1837774</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1450087; 1522219</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1452378; 1519778</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1912773; 2007133</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
